--- a/data/preprocessed/video/S3_roll.xlsx
+++ b/data/preprocessed/video/S3_roll.xlsx
@@ -2162,7 +2162,7 @@
         <v>0.03693473921896736</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2306606721638677</v>
+        <v>0.2305800286284551</v>
       </c>
       <c r="F10" t="n">
         <v>0.2036652486845023</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -11782,7 +11782,7 @@
         <v>0.0172173948105885</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04401120945142235</v>
+        <v>0.04393056591600976</v>
       </c>
       <c r="F62" t="n">
         <v>0.009778028668776839</v>
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB62" t="n">
         <v>0</v>
@@ -42131,7 +42131,7 @@
         <v>0.002056410153021109</v>
       </c>
       <c r="H226" t="n">
-        <v>0.04104755952500957</v>
+        <v>0.04100723775730328</v>
       </c>
       <c r="I226" t="n">
         <v>0.0176810951392109</v>
@@ -42275,7 +42275,7 @@
         <v>0</v>
       </c>
       <c r="BD226" t="n">
-        <v>0</v>
+        <v>4.032176770629624e-05</v>
       </c>
       <c r="BE226" t="n">
         <v>0</v>
